--- a/Plan/Data_추출파일/005.플레이어테이블.xlsx
+++ b/Plan/Data_추출파일/005.플레이어테이블.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365cntu-my.sharepoint.com/personal/201938026_s_cntu_ac_kr/Documents/Funigloo/1.티니핑 프로젝트/Tiniffing_plan/Plan/Data_추출파일/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Solid8\Desktop\Tiniffing_plan\Plan\Data_추출파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D51077D5-D0AF-4BBF-950A-EACF2D056183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F74D2633-DC4B-4F73-AA3B-624BD890229C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{55BA0CAF-E1D0-40F5-8CF0-898E607F2249}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D8B21A33-F8A1-418D-8995-99C5458FA9F6}"/>
   </bookViews>
   <sheets>
     <sheet name="005.플레이어테이블" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
@@ -415,16 +415,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C3F03F-FB3B-4899-A0C5-73CE1282E063}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C6680CA-3AD1-48A2-A357-202FD1E9E6C2}">
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>

--- a/Plan/Data_추출파일/005.플레이어테이블.xlsx
+++ b/Plan/Data_추출파일/005.플레이어테이블.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Solid8\Desktop\Tiniffing_plan\Plan\Data_추출파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F74D2633-DC4B-4F73-AA3B-624BD890229C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA12AF38-BE89-496D-A451-D893B5CCC15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D8B21A33-F8A1-418D-8995-99C5458FA9F6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{89FB5B9A-0358-41C6-83FA-F725A34265BD}"/>
   </bookViews>
   <sheets>
     <sheet name="005.플레이어테이블" sheetId="1" r:id="rId1"/>
@@ -415,7 +415,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C6680CA-3AD1-48A2-A357-202FD1E9E6C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A273BD6-8327-4200-96C6-4341039BBEAD}">
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
